--- a/tri.xlsx
+++ b/tri.xlsx
@@ -34,13 +34,13 @@
     <t>MCMC Model</t>
   </si>
   <si>
-    <t>31.3 (28.6+2.98,-2.71)</t>
-  </si>
-  <si>
-    <t>164.0 (170.0+16.1,-20.9)</t>
-  </si>
-  <si>
-    <t>70.7 (66.3+7.08,-6.48)</t>
+    <t>54.0 (42.9+11.9,-13.3)</t>
+  </si>
+  <si>
+    <t>176.0 (196.0+51.0,-49.6)</t>
+  </si>
+  <si>
+    <t>60.2 (52.2+19.5,-18.3)</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>18.5</v>
+        <v>8.43</v>
       </c>
     </row>
   </sheetData>
